--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2188757.035841117</v>
+        <v>-2191434.921239979</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95836603255682</v>
+        <v>23.41994504831916</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>209.9271762854926</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>141.870195912271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>141.8004513409166</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.3642731739563</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>150.58506845495</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>171.7606266850061</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>377.6206955344653</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055931</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438639</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>197.1137256149999</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>82.47290449300773</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175991</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>158.4589496224476</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950647</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699822</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477247</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368356</v>
+        <v>141.276945881932</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368356</v>
+        <v>141.276945881932</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1486825368356</v>
+        <v>141.276945881932</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1627777472281</v>
+        <v>141.276945881932</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>304.708719694602</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>638.0146769637281</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1001.276695922948</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1424.398467260869</v>
       </c>
       <c r="W4" t="n">
-        <v>427.1494310484136</v>
+        <v>1134.981297223908</v>
       </c>
       <c r="X4" t="n">
-        <v>199.1598801503962</v>
+        <v>906.9917463258904</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>1087.543869929672</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>676.5579651400649</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>260.8532148643537</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.446123173937</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.446123173937</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2309.446123173937</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>2309.446123173937</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1919.306791198125</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>648.272596813117</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4759,16 +4759,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1173.832200068228</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>884.4150300312675</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X7" t="n">
-        <v>656.4254791332502</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>829.9210616433568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1584.301818966209</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1198.513566367964</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>787.5276615783569</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -5005,7 +5005,7 @@
         <v>1155.517642110232</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578618</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578618</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578618</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578618</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769994</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684979</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142549</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142549</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606611</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327542</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831766</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625879</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.896109690901</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.896109690901</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840793</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,10 +6379,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6391,7 +6391,7 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
@@ -6418,13 +6418,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,34 +6598,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,13 +6634,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516145</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636217</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191926</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845745</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400352</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7321,10 +7321,10 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538930051</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.44676101130807</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-2.175226711222826e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.132653630022711e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>359.5893367403972</v>
+        <v>345.5435977604428</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>235.6455902361443</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>10.8215197117193</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.65280242432</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.7739166056201</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664525</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.065188669821254</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711692</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027096</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1359899.82602592</v>
+        <v>1359899.826025921</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1359899.82602592</v>
+        <v>1359899.826025921</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1359899.82602592</v>
+        <v>1359899.826025921</v>
       </c>
     </row>
     <row r="10">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215493</v>
+        <v>48691.36674215495</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982125</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61578.13273982126</v>
       </c>
       <c r="E2" t="n">
         <v>60535.99497675042</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982126</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819079</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37450.91375005663</v>
+        <v>37450.91375005664</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26424,37 +26424,37 @@
         <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.25639174422</v>
+        <v>8727.256391744268</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744238</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="L4" t="n">
+        <v>16718.1156548378</v>
+      </c>
+      <c r="M4" t="n">
         <v>16718.11565483775</v>
       </c>
-      <c r="M4" t="n">
-        <v>16718.11565483764</v>
-      </c>
       <c r="N4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1196449.103023666</v>
+        <v>-1196878.661890255</v>
       </c>
       <c r="C6" t="n">
-        <v>-166881.7766770066</v>
+        <v>-166881.7766770065</v>
       </c>
       <c r="D6" t="n">
-        <v>-326897.2394250054</v>
+        <v>-326897.2394250056</v>
       </c>
       <c r="E6" t="n">
-        <v>-374726.2530462563</v>
+        <v>-374760.9909716919</v>
       </c>
       <c r="F6" t="n">
-        <v>-49313.79123890095</v>
+        <v>-49348.52916433664</v>
       </c>
       <c r="G6" t="n">
-        <v>-49313.79123890091</v>
+        <v>-49348.52916433661</v>
       </c>
       <c r="H6" t="n">
-        <v>-49313.79123890097</v>
+        <v>-49348.52916433668</v>
       </c>
       <c r="I6" t="n">
-        <v>-49313.79123890092</v>
+        <v>-49348.52916433664</v>
       </c>
       <c r="J6" t="n">
         <v>-245336.9945725463</v>
       </c>
       <c r="K6" t="n">
-        <v>-58304.09876893189</v>
+        <v>-58304.09876893196</v>
       </c>
       <c r="L6" t="n">
-        <v>-106598.0687771227</v>
+        <v>-106598.0687771226</v>
       </c>
       <c r="M6" t="n">
         <v>-143359.1267044438</v>
       </c>
       <c r="N6" t="n">
-        <v>-58304.0987689317</v>
+        <v>-58304.09876893189</v>
       </c>
       <c r="O6" t="n">
-        <v>-77731.81676256366</v>
+        <v>-77731.81676256369</v>
       </c>
       <c r="P6" t="n">
-        <v>-58304.0987689319</v>
+        <v>-58304.09876893191</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>42.58415996419205</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.5953784812687</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>159.2181012214888</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.680976954505752</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16.66175264367783</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>80.37701663882191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>33.30103011898819</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330883</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.18381805424144</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21.47092773709491</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-8.044590586852569e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.947853035779594e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111466</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190224</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>251.8861049150239</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321067</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814842</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720118991</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.192057627921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870023</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824148</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.1271216491583</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422171</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6095743667022</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>535.141012974578</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316906</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876622</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396399</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712524</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059027</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396399</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556927</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
